--- a/exams/kompege/benjamin 2024-05-26 25034725 54/22_11890.xlsx
+++ b/exams/kompege/benjamin 2024-05-26 25034725 54/22_11890.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\exams\kompege\benjamin 2024-05-26 25034725\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\программы проекты\ege_bk\exams\kompege\benjamin 2024-05-26 25034725 54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48CB35-2C23-4129-8029-D94FD5C47DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0DCD8-18AA-4203-8DF9-CC85B03F09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRO100 ЕГЭ" sheetId="1" r:id="rId1"/>
@@ -419,16 +419,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -527,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>5</v>
       </c>
